--- a/template Excel/MKT/PerformanceEvaluationMKT.xlsx
+++ b/template Excel/MKT/PerformanceEvaluationMKT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7522CA7-3C72-4CCE-BAD3-9745CE6781C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFA79A-EF34-47E8-9061-918FF762BD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B1E5ACA4-6040-42E6-988E-C16A861913CD}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{B1E5ACA4-6040-42E6-988E-C16A861913CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB157EF-168F-46BF-B4CA-9CBF6D0C7182}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,11 +1415,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template Excel/MKT/PerformanceEvaluationMKT.xlsx
+++ b/template Excel/MKT/PerformanceEvaluationMKT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFA79A-EF34-47E8-9061-918FF762BD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2C195F-C039-4F52-8938-96E222639304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{B1E5ACA4-6040-42E6-988E-C16A861913CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B1E5ACA4-6040-42E6-988E-C16A861913CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>EvaluationMKTId</t>
-  </si>
-  <si>
     <t>EmployeeId</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>LinkCount</t>
+  </si>
+  <si>
+    <t>PerformanceEvaluationMKTId</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB157EF-168F-46BF-B4CA-9CBF6D0C7182}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,58 +521,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
